--- a/data/trans_orig/P16A_n_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9309997606519901</v>
+        <v>0.9225681440921295</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.943970027125191</v>
+        <v>0.9532189170299751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8946730004574187</v>
+        <v>0.9110794989837208</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.420807439321515</v>
+        <v>1.413304913935176</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.379776608974253</v>
+        <v>1.388697711711722</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.786549072159954</v>
+        <v>1.790203982190387</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.53227114783684</v>
+        <v>1.524420884913389</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.124696476881982</v>
+        <v>2.136170491742817</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.236907612921074</v>
+        <v>1.235285470565268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.411149223152786</v>
+        <v>1.40297113671677</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.255688650483399</v>
+        <v>1.260766285162131</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.875934148923211</v>
+        <v>1.865269486449291</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.16449062607738</v>
+        <v>1.169392457086791</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.144802563755971</v>
+        <v>1.140018095472856</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.062378807608911</v>
+        <v>1.070992590818754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.799636528955151</v>
+        <v>1.811842117724141</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.602472744166813</v>
+        <v>1.597524666734844</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.022212158523304</v>
+        <v>2.035816589088992</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.740454496030233</v>
+        <v>1.735017338379143</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.480393867155264</v>
+        <v>2.487751885713643</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.40533547312978</v>
+        <v>1.400683359460295</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.57322157877051</v>
+        <v>1.567534669257141</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.39550656245799</v>
+        <v>1.396893697035456</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.133848577870638</v>
+        <v>2.128519965977216</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6264304801869933</v>
+        <v>0.6236729352199121</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8778595903795472</v>
+        <v>0.8902974571512673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8210554713984888</v>
+        <v>0.8168568286116767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.119160320870851</v>
+        <v>1.116916599019645</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9910094112960635</v>
+        <v>0.9998426045644873</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.487925763903456</v>
+        <v>1.499622509908485</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.193494286271977</v>
+        <v>1.186341830042576</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.732018542349025</v>
+        <v>1.740822618501547</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8180097717851552</v>
+        <v>0.8247531725003697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.226898528798202</v>
+        <v>1.233207407629448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.041599892952657</v>
+        <v>1.035806496921672</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.47830112813596</v>
+        <v>1.472905386149205</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7626076716540989</v>
+        <v>0.764687173274714</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.079964908500542</v>
+        <v>1.084786778121195</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9716934368715221</v>
+        <v>0.9802605193265904</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.357582199409869</v>
+        <v>1.358161533737142</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.164113348583918</v>
+        <v>1.163542709401946</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.699433375478942</v>
+        <v>1.706235105262755</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.387968413070073</v>
+        <v>1.382081156740808</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.952975351899964</v>
+        <v>1.968306100792476</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9280092418358545</v>
+        <v>0.9393157749186791</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.372166093529973</v>
+        <v>1.372019623187754</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.164115844997172</v>
+        <v>1.168485896070458</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.638983952827694</v>
+        <v>1.644158978540403</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>1.298723394277488</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>1.52401149990769</v>
+        <v>1.524011499907691</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.754299732744015</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5407803966871927</v>
+        <v>0.5469210502630816</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9621118585794814</v>
+        <v>0.970928990118484</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8247699139143937</v>
+        <v>0.8181109181853717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.026690345650112</v>
+        <v>1.025736362016029</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8585139666154092</v>
+        <v>0.8518198878920309</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.36772926453084</v>
+        <v>1.363217541961177</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.203649807361426</v>
+        <v>1.201112195373368</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.433089515141777</v>
+        <v>1.425379713509403</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7089315280802324</v>
+        <v>0.7075556065788794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.188707030270402</v>
+        <v>1.193874349500436</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.027638166579901</v>
+        <v>1.025803641331611</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.246456495546573</v>
+        <v>1.25114913370317</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6677529188751234</v>
+        <v>0.6747750138302903</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.155331535467975</v>
+        <v>1.172391743993566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9879798003521428</v>
+        <v>1.001198377711431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.212758456380153</v>
+        <v>1.22514726293359</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.004853275597964</v>
+        <v>1.007440290169913</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.583946426604129</v>
+        <v>1.587971860388273</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.40319166631885</v>
+        <v>1.412021669724109</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.621679410651024</v>
+        <v>1.621194807001021</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8040672813711331</v>
+        <v>0.8043154139818993</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.341358928022553</v>
+        <v>1.338540526446165</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.160470038996319</v>
+        <v>1.165388067791041</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.387740417770589</v>
+        <v>1.384987437667875</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5297135964959314</v>
+        <v>0.5260701608022548</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.826509192401947</v>
+        <v>0.8131729736301099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7360469865246777</v>
+        <v>0.74373522738579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.046485702144275</v>
+        <v>1.048400657110025</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8092668753970254</v>
+        <v>0.8201871517845115</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.148949515999502</v>
+        <v>1.15720134859286</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.033754033964434</v>
+        <v>1.036853285613609</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.373026308691712</v>
+        <v>1.373473723499814</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6768015433027745</v>
+        <v>0.6875830651501673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.022691922461641</v>
+        <v>1.012559827215899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9011498255638472</v>
+        <v>0.9151895006794143</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.22903187201602</v>
+        <v>1.225470167603936</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7286918860338008</v>
+        <v>0.7221108663204916</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.166181450782443</v>
+        <v>1.146131816903555</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9241771484811214</v>
+        <v>0.9251405301903305</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.235337613431883</v>
+        <v>1.250793130854034</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.075293749082656</v>
+        <v>1.077392390828159</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.454298239273434</v>
+        <v>1.481618699754374</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.3045730493564</v>
+        <v>1.320858449717951</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.560391944182329</v>
+        <v>1.563820763354544</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8402615602864333</v>
+        <v>0.8439845224978163</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.241137595410518</v>
+        <v>1.243095014116753</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.072571670853651</v>
+        <v>1.0834129841771</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.367874218893584</v>
+        <v>1.368685369365505</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6764567505553951</v>
+        <v>0.6663813688168878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9610293798031727</v>
+        <v>0.9599061861744085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8738016375233986</v>
+        <v>0.8767248213656545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.172078690315435</v>
+        <v>1.170753078122907</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.084455296265472</v>
+        <v>1.081765128108002</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.565488032436726</v>
+        <v>1.560982506937061</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.339401507139432</v>
+        <v>1.340836463595012</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.681748508716565</v>
+        <v>1.679027973400262</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8915658387259005</v>
+        <v>0.8940143867859596</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.282908413462128</v>
+        <v>1.287331199737456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.123533896316328</v>
+        <v>1.121672988884972</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.444250686044006</v>
+        <v>1.448156294574066</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7558167227385835</v>
+        <v>0.7501553590144971</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.07364995269636</v>
+        <v>1.072488736235355</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9555753056142359</v>
+        <v>0.9656342634527006</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.284145756878956</v>
+        <v>1.281680091919913</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.181804249978652</v>
+        <v>1.187098627529117</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.683308142557419</v>
+        <v>1.681616029532532</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.451016918899475</v>
+        <v>1.447680186653492</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.796326133908696</v>
+        <v>1.79433718133555</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.958700995748769</v>
+        <v>0.9582438248724744</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.36692593374492</v>
+        <v>1.369019926794778</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.199804542836094</v>
+        <v>1.198767064338798</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.529470720595386</v>
+        <v>1.532000731924198</v>
       </c>
     </row>
     <row r="19">
